--- a/biology/Médecine/Oticon/Oticon.xlsx
+++ b/biology/Médecine/Oticon/Oticon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oticon est un fabricant d'aides auditives basé à Copenhague, au Danemark. Il a été fondé en 1904 par Hans Demant, dont l'épouse était malentendante. 
@@ -513,11 +525,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Oticon est créé en 1904 par Hans Demant.
-La société rappelle un produit défectueux en 2021[2].
-La société est vendue par le groupe Demant en 2022[3].
+La société rappelle un produit défectueux en 2021.
+La société est vendue par le groupe Demant en 2022.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>PDG</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1988-1998 Lars Kolind
 1998-2008 Niels Jacobsen
